--- a/CovidHomeTestsPerformance.xlsx
+++ b/CovidHomeTestsPerformance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BA6895D-9B42-48A6-80B7-CAC1CE77DD43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD44F5EB-E493-402A-922B-19B45F28F27C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{AF234F0F-824A-457C-A552-E0171B1302CF}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Name</t>
   </si>
@@ -46,81 +46,27 @@
     <t>Abbott BinaxNow</t>
   </si>
   <si>
-    <t> 84.6%</t>
-  </si>
-  <si>
     <t>Access Bio CareStart</t>
   </si>
   <si>
-    <t> 87%</t>
-  </si>
-  <si>
-    <t> 98%</t>
-  </si>
-  <si>
     <t>Acon Flowflex</t>
   </si>
   <si>
-    <t> 93%</t>
-  </si>
-  <si>
-    <t> 100% </t>
-  </si>
-  <si>
     <t>BD Veritor </t>
   </si>
   <si>
-    <t>84.6% </t>
-  </si>
-  <si>
-    <t>Boson Biotech</t>
-  </si>
-  <si>
-    <t> 82.7%</t>
-  </si>
-  <si>
     <t>Celltrion DiaTrust </t>
   </si>
   <si>
-    <t> 86.7%</t>
-  </si>
-  <si>
-    <t> 99.8%</t>
-  </si>
-  <si>
     <t>Clinitest Rapid </t>
   </si>
   <si>
-    <t> 86.5%</t>
-  </si>
-  <si>
     <t>Ellume</t>
   </si>
   <si>
-    <t> 95%</t>
-  </si>
-  <si>
-    <t> 97%</t>
-  </si>
-  <si>
     <t>iHealth</t>
   </si>
   <si>
-    <t> 94.3%</t>
-  </si>
-  <si>
-    <t> 98.1%</t>
-  </si>
-  <si>
-    <t>Indicaid </t>
-  </si>
-  <si>
-    <t> 81.7%</t>
-  </si>
-  <si>
-    <t> 99.4%</t>
-  </si>
-  <si>
     <t>Intrivo On/Go</t>
   </si>
   <si>
@@ -130,16 +76,7 @@
     <t>Orasure InteliSwab </t>
   </si>
   <si>
-    <t> 84%</t>
-  </si>
-  <si>
     <t>Quidel QuickVue </t>
-  </si>
-  <si>
-    <t> 99.1%</t>
-  </si>
-  <si>
-    <t>Roche Rapid Antigen</t>
   </si>
   <si>
     <t>tpcp</t>
@@ -188,9 +125,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="170" formatCode="0.0"/>
-    <numFmt numFmtId="171" formatCode="0.0%"/>
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -238,17 +174,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,67 +494,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C42465-D449-4647-A2D4-607F70A04AD1}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="30.453125" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="6" max="6" width="10.36328125" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -631,331 +562,298 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" t="s">
         <v>1</v>
       </c>
-      <c r="C21" t="s">
+      <c r="G21" t="s">
         <v>2</v>
       </c>
-      <c r="D21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" t="s">
+    </row>
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>99</v>
+      </c>
+      <c r="C22">
+        <v>18</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>338</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.84615384615384615</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.98542274052478129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>26</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>120</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.97560975609756095</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>28</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>78</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>33</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>597</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0.84615384615384615</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0.99832775919732442</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="3" t="s">
+      <c r="C26">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>446</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0.99776286353467558</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <v>117</v>
+      </c>
+      <c r="C27">
+        <v>20</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>139</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0.85401459854014594</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0.99285714285714288</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>35</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>156</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0.94594594594594594</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0.96894409937888204</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>33</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>102</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0.94285714285714284</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0.98076923076923073</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30">
+        <v>26</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30">
         <v>3</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="D22">
-        <v>99</v>
-      </c>
-      <c r="E22">
-        <v>18</v>
-      </c>
-      <c r="F22">
-        <v>5</v>
-      </c>
-      <c r="G22">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="E30">
+        <v>120</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0.97560975609756095</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31">
+        <v>28</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>78</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32">
+        <v>52</v>
+      </c>
+      <c r="C32">
+        <v>9</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>102</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0.85245901639344257</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0.98076923076923073</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33">
+        <v>39</v>
+      </c>
+      <c r="C33">
         <v>7</v>
       </c>
-      <c r="D23">
-        <v>26</v>
-      </c>
-      <c r="E23">
-        <v>4</v>
-      </c>
-      <c r="F23">
-        <v>3</v>
-      </c>
-      <c r="G23">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24">
-        <v>28</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0.998</v>
-      </c>
-      <c r="D25">
-        <v>33</v>
-      </c>
-      <c r="E25">
-        <v>6</v>
-      </c>
-      <c r="F25">
+      <c r="D33">
         <v>1</v>
       </c>
-      <c r="G25">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0.99099999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27">
-        <v>39</v>
-      </c>
-      <c r="E27">
-        <v>6</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="2">
-        <v>0.99299999999999999</v>
-      </c>
-      <c r="D28">
-        <v>117</v>
-      </c>
-      <c r="E28">
-        <v>20</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29">
-        <v>35</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29">
-        <v>5</v>
-      </c>
-      <c r="G29">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30">
-        <v>33</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30">
-        <v>2</v>
-      </c>
-      <c r="G30">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="2">
-        <v>0.87</v>
-      </c>
-      <c r="C32" s="2">
-        <v>0.98</v>
-      </c>
-      <c r="D32">
-        <v>26</v>
-      </c>
-      <c r="E32">
-        <v>4</v>
-      </c>
-      <c r="F32">
-        <v>3</v>
-      </c>
-      <c r="G32">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="2">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>28</v>
-      </c>
       <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34">
-        <v>52</v>
-      </c>
-      <c r="E34">
-        <v>9</v>
-      </c>
-      <c r="F34">
-        <v>2</v>
-      </c>
-      <c r="G34">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="2">
-        <v>0.84799999999999998</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D35">
-        <v>39</v>
-      </c>
-      <c r="E35">
-        <v>7</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
         <v>114</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="2">
-        <v>0.93200000000000005</v>
-      </c>
-      <c r="C36" s="2">
-        <v>1</v>
+      <c r="F33" s="2">
+        <v>0.84782608695652173</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0.99130434782608701</v>
       </c>
     </row>
   </sheetData>
